--- a/benchmark_results.xlsx
+++ b/benchmark_results.xlsx
@@ -2,25 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{29699EDD-11A4-4656-BF00-F3C0459697D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4EBE124-B79E-4E4E-B113-C3B9C5752AFD}"/>
+  <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D22B9705-8314-4BF4-B023-3C612F46D1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="110" windowWidth="27980" windowHeight="18200" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40560" yWindow="710" windowWidth="27980" windowHeight="18200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance trace count" sheetId="12" r:id="rId1"/>
     <sheet name="Performance trace length" sheetId="13" r:id="rId2"/>
     <sheet name="Memory trace length" sheetId="15" r:id="rId3"/>
     <sheet name="Memory trace count" sheetId="16" r:id="rId4"/>
-    <sheet name="New data" sheetId="11" r:id="rId5"/>
-    <sheet name="Actions" sheetId="10" r:id="rId6"/>
+    <sheet name="Data" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'New data'!$A$1:$K$352</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Data!$A$1:$K$352</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="28">
   <si>
     <t>tr_len</t>
   </si>
@@ -125,24 +124,6 @@
   </si>
   <si>
     <t>total_time</t>
-  </si>
-  <si>
-    <t>Rename benchmark values</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>Leave *_s part in columns</t>
-  </si>
-  <si>
-    <t>not relevant</t>
-  </si>
-  <si>
-    <t>Run memory trace len benchmarks</t>
-  </si>
-  <si>
-    <t>Update data table</t>
   </si>
 </sst>
 </file>
@@ -5624,7 +5605,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Author" refreshedDate="44665.516733217592" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="351" xr:uid="{00000000-000A-0000-FFFF-FFFF17000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K352" sheet="New data"/>
+    <worksheetSource ref="A1:K352" sheet="Data"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="Name" numFmtId="0">
@@ -11475,8 +11456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12233,7 +12214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -12508,8 +12489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K352"/>
   <sheetViews>
-    <sheetView topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="O318" sqref="O318"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25546,64 +25527,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="B3:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>